--- a/downloads/12.3.Columna_Dinamica_Ejercicio_Practico.xlsx
+++ b/downloads/12.3.Columna_Dinamica_Ejercicio_Practico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Personales\Curso-de-Herramientas-analiticas-para-auditoria-I\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BC8F0E-33A3-48C8-8F31-3D79186491A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50D6E4A-C060-4448-BD98-5C41EE776F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{43599FEF-1D7A-42E6-9171-A50C49C06712}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{43599FEF-1D7A-42E6-9171-A50C49C06712}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Nuevos Gerentes País</t>
   </si>
@@ -56,9 +56,6 @@
     <t>País</t>
   </si>
   <si>
-    <t>Brasil</t>
-  </si>
-  <si>
     <t>Horas de Trabajo/Mes</t>
   </si>
   <si>
@@ -77,16 +74,10 @@
     <t>Davila</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
     <t>Manuel</t>
   </si>
   <si>
     <t>Ramos</t>
-  </si>
-  <si>
-    <t>Chile</t>
   </si>
   <si>
     <t>TOTAL ABSOLUTO</t>
@@ -570,17 +561,17 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -597,16 +588,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -620,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H2" s="8">
         <v>160</v>
@@ -632,7 +623,7 @@
         <v>43105</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -640,13 +631,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" s="11">
         <v>175</v>
@@ -658,21 +649,21 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="H4" s="14">
         <v>158</v>
@@ -684,177 +675,177 @@
         <v>43112</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="18">
         <f>8*20</f>
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="18">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="19">
         <v>43105</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="20">
         <f>(B5*B6)-(B7-DATE(2018,1,1)*B6)</f>
         <v>778854</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="18">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="18">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="19">
         <v>43108</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="21">
         <f>(B14*B15)-(B16-DATE(2018,1,1)*B15)</f>
         <v>735860</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="18">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="18">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A25" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="19">
         <v>43112</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="21">
         <f>(B23*B24)-(B25-DATE(2018,1,1)*B24)</f>
         <v>692291</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.5">
       <c r="A28" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B28" s="22">
         <f>B27+B18+B9</f>
